--- a/ResultsOfTheSessionNUnitTest/PreparationOfReportsNUnitTest/Resources/SessionResultWithGroupMarks.xlsx
+++ b/ResultsOfTheSessionNUnitTest/PreparationOfReportsNUnitTest/Resources/SessionResultWithGroupMarks.xlsx
@@ -215,30 +215,30 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
-        <v>8.25</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsOfTheSessionNUnitTest/PreparationOfReportsNUnitTest/Resources/SessionResultWithGroupMarks.xlsx
+++ b/ResultsOfTheSessionNUnitTest/PreparationOfReportsNUnitTest/Resources/SessionResultWithGroupMarks.xlsx
@@ -163,7 +163,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <v>6.375</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -224,7 +224,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3">
-        <v>7.75</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3">
-        <v>8.25</v>
+        <v>8.2</v>
       </c>
     </row>
   </sheetData>
